--- a/RegistrosGym.xlsx
+++ b/RegistrosGym.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="RegistrosGym" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Ejercicios" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Reps</t>
   </si>
   <si>
-    <t>Wight</t>
+    <t>Weight</t>
   </si>
   <si>
     <t>WID_1744400918819</t>
@@ -49,13 +50,16 @@
     <t>WID_1744402388944</t>
   </si>
   <si>
+    <t>Remo Trapecio</t>
+  </si>
+  <si>
     <t>Remo trapecio</t>
   </si>
   <si>
     <t>WID_1744403137983</t>
   </si>
   <si>
-    <t>Extensión de cuádriceps</t>
+    <t>Extensión de Cuádriceps</t>
   </si>
   <si>
     <t>WID_1744403556918</t>
@@ -67,21 +71,97 @@
     <t>WID_1744404012805</t>
   </si>
   <si>
-    <t>Biceps femoral</t>
+    <t>Biceps Femoral</t>
   </si>
   <si>
     <t>WID_1744404301354</t>
   </si>
   <si>
     <t>Curl Martillo</t>
+  </si>
+  <si>
+    <t>WID_1744660578002</t>
+  </si>
+  <si>
+    <t>Press Banca Inclinado</t>
+  </si>
+  <si>
+    <t>WID_1744661379540</t>
+  </si>
+  <si>
+    <t>Aperturas de Pecho</t>
+  </si>
+  <si>
+    <t>WID_1744662071157</t>
+  </si>
+  <si>
+    <t>Press Militar</t>
+  </si>
+  <si>
+    <t>WID_1744662640332</t>
+  </si>
+  <si>
+    <t>Press Banca Plano</t>
+  </si>
+  <si>
+    <t>WID_1744663307111</t>
+  </si>
+  <si>
+    <t>Hombro Laterales</t>
+  </si>
+  <si>
+    <t>WID_1744664085407</t>
+  </si>
+  <si>
+    <t>Triceps con Cuerda</t>
+  </si>
+  <si>
+    <t>WID_1744747040747</t>
+  </si>
+  <si>
+    <t>WID_1744747904786</t>
+  </si>
+  <si>
+    <t>WID_1744748695258</t>
+  </si>
+  <si>
+    <t>WID_1744749562230</t>
+  </si>
+  <si>
+    <t>Prensa Pierna</t>
+  </si>
+  <si>
+    <t>WID_1744749697664</t>
+  </si>
+  <si>
+    <t>WID_1744810494115</t>
+  </si>
+  <si>
+    <t>WID_1744811145672</t>
+  </si>
+  <si>
+    <t>WID_1744812155502</t>
+  </si>
+  <si>
+    <t>WID_1744812751266</t>
+  </si>
+  <si>
+    <t>WID_1744813602767</t>
+  </si>
+  <si>
+    <t>WID_1744814360279</t>
+  </si>
+  <si>
+    <t>Triceps tras Nuca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -110,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -123,6 +203,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -132,6 +215,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -562,7 +649,7 @@
         <v>45758.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
         <v>2.0</v>
@@ -585,7 +672,7 @@
         <v>45758.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>3.0</v>
@@ -602,13 +689,13 @@
         <v>1.744403137983E12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>45758.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>1.0</v>
@@ -625,13 +712,13 @@
         <v>1.744403137983E12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>45758.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
         <v>2.0</v>
@@ -648,13 +735,13 @@
         <v>1.744403137983E12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
         <v>45758.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
         <v>3.0</v>
@@ -671,13 +758,13 @@
         <v>1.744403137983E12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>45758.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
         <v>4.0</v>
@@ -694,13 +781,13 @@
         <v>1.744403556918E12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
         <v>45758.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>1.0</v>
@@ -717,13 +804,13 @@
         <v>1.744403556918E12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>45758.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
         <v>2.0</v>
@@ -740,13 +827,13 @@
         <v>1.744404012805E12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
         <v>45758.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
         <v>1.0</v>
@@ -763,13 +850,13 @@
         <v>1.744404012805E12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>45758.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>2.0</v>
@@ -786,13 +873,13 @@
         <v>1.744404012805E12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
         <v>45758.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
         <v>3.0</v>
@@ -809,13 +896,13 @@
         <v>1.744404301354E12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>45758.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>1.0</v>
@@ -832,13 +919,13 @@
         <v>1.744404301354E12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <v>45758.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>2.0</v>
@@ -848,6 +935,1361 @@
       </c>
       <c r="G22" s="2">
         <v>12.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>1.744660578002E12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>1.744660578002E12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>1.744660578002E12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>1.744660578002E12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>1.74466137954E12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>1.74466137954E12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>1.74466137954E12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>1.744662071157E12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>1.744662071157E12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>1.744662071157E12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>1.744662071157E12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>1.744662640332E12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>1.744662640332E12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>1.744662640332E12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>1.744663307111E12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>1.744663307111E12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>1.744664085407E12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>1.744664085407E12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>1.744747040747E12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>1.744747040747E12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>1.744747040747E12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>1.744747040747E12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>1.744747904786E12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>1.744747904786E12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>1.744747904786E12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>1.744748695258E12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>1.744748695258E12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>1.744748695258E12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>1.74474956223E12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>1.74474956223E12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>1.74474956223E12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>1.74474956223E12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>1.744749697664E12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>1.744749697664E12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45762.0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>1.744810494115E12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>1.744810494115E12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>1.744810494115E12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>1.744810494115E12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>1.744811145672E12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>1.744811145672E12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>1.744811145672E12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>1.744812155502E12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>1.744812155502E12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>1.744812155502E12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>1.744812155502E12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>1.744812751266E12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>1.744812751266E12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>1.744812751266E12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>1.744812751266E12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>1.744813602767E12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>1.744813602767E12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>1.744813602767E12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>1.744814360279E12</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>1.744814360279E12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>1.744814360279E12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="4">
+        <v>45763.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
